--- a/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_TIR-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>276,33%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>334,1%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>189,1%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>6.99830105737015</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>6.900536527893431</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.690386610928304</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.257531142103504</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.347120958226757</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.527008325188591</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 9,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 9,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 7,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>72,42; 794,63</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>144,63; 768,64</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>48,71; 525,36</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>3.459850317468113</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>4.09602719881259</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.690761128286384</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.5250345814637482</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.154440339043844</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.3095542112748991</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.47447457378609</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>9.888555723666441</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.337952674556044</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.770441353513139</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.483143543128085</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.07319075319722</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,93</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>496,68%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>345,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>412,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 8,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 6,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 6,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>234,87; 1026,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>176,84; 631,76</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>250,87; 679,64</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>7.718300058381176</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>5.27747103296425</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>5.382902533836297</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.217669184067114</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.463144268899638</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>4.003643936714293</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>6.030937928509286</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>3.594058098871195</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>4.322864849252102</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.226131292611852</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.653347801447719</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2.391815899491505</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>9.605960961268144</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>7.016090190722493</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>6.701447321098709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.77531031205513</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.338849204728533</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.548564552299589</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>484,42%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>111,27%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>595,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,21; 8,6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 4,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 6,65</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>172,36; 1151,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 287,13</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>226,74; 1560,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>6.172730415806135</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>2.235674442204195</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>5.17085745697368</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.412532188616356</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.016379883438237</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>7.196670757482782</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>3.871367229240007</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.2275192498956749</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>3.882120762923522</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.583094680600674</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.03891052575950201</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>2.771129611745186</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>8.573331103838001</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>4.293171367391451</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>6.766979529783923</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.52038953510133</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.067328515763251</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>23.4466932304986</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,85</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>454,8%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>272,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>389,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 8,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 5,77</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 6,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>263,91; 758,11</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>172,12; 414,69</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>261,28; 588,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>7.337845933218076</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>4.725107928718296</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>5.256112134944706</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.471715415571675</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.645172600756898</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>3.788731322754916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>6.06237984575303</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>3.531355409397864</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>4.368227733781628</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.62882226091342</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.570442576719145</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>2.523953806772902</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>8.638501405467499</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>5.866909238874098</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>6.197939692415557</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.557534691009471</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.34776705225005</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>5.857728152791582</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
